--- a/Genericpackdemo.xlsx
+++ b/Genericpackdemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC907504-9A66-4654-AD3D-E29F08F6E83B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE13A22-E5C6-494A-9A6A-8238F97E972B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -211,10 +211,7 @@
     <t>Salesforce should get logout successfully</t>
   </si>
   <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -589,7 +586,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,9 +658,6 @@
       <c r="I2" t="s">
         <v>63</v>
       </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
